--- a/UTS_V3921026_PerwiraDzakwan.xlsx
+++ b/UTS_V3921026_PerwiraDzakwan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Encryption\uts-skd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Encryption\UTS_Gasal_V3921026_PerwiraDzakwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25B046B-5326-465E-A111-D00458F68D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F142296-4C01-4025-9CAA-5691775A23F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,9 +251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,8 +292,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +578,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,62 +588,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -657,11 +654,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18">
         <v>99</v>
       </c>
     </row>
@@ -669,388 +666,388 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="15" t="s">
+      <c r="P6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="15" t="s">
+      <c r="R6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="15" t="s">
+      <c r="W6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="N7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V7" s="6" t="s">
+      <c r="U7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="X7" s="6" t="s">
+      <c r="W7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="17" t="s">
+      <c r="I14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="17" t="s">
+      <c r="P14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="17" t="s">
+      <c r="R14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="X14" s="17" t="s">
+      <c r="W14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="17" t="s">
+      <c r="Z14" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1135,11 +1132,11 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D17"/>
@@ -1170,25 +1167,25 @@
         <v>35</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="1"/>
@@ -1214,25 +1211,25 @@
         <v>36</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="6">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6">
-        <v>22</v>
-      </c>
-      <c r="G19" s="6">
-        <v>8</v>
-      </c>
-      <c r="H19" s="6">
-        <v>17</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8</v>
+      </c>
+      <c r="H19" s="5">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5">
         <v>0</v>
       </c>
       <c r="J19" s="1"/>
@@ -1285,76 +1282,76 @@
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="L21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6" t="s">
+      <c r="O21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="6" t="s">
+      <c r="Q21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6" t="s">
+      <c r="T21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="W21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y21" s="6" t="s">
+      <c r="X21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z21" s="6" t="s">
+      <c r="Z21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1362,76 +1359,76 @@
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="6">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6">
-        <v>17</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>15</v>
-      </c>
-      <c r="K22" s="6">
-        <v>4</v>
-      </c>
-      <c r="L22" s="6">
-        <v>17</v>
-      </c>
-      <c r="M22" s="6">
-        <v>22</v>
-      </c>
-      <c r="N22" s="6">
-        <v>8</v>
-      </c>
-      <c r="O22" s="6">
-        <v>17</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>15</v>
-      </c>
-      <c r="R22" s="6">
-        <v>4</v>
-      </c>
-      <c r="S22" s="6">
-        <v>17</v>
-      </c>
-      <c r="T22" s="6">
-        <v>22</v>
-      </c>
-      <c r="U22" s="6">
-        <v>8</v>
-      </c>
-      <c r="V22" s="6">
-        <v>17</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <v>15</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="6">
+      <c r="C22" s="5">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5">
+        <v>22</v>
+      </c>
+      <c r="G22" s="5">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>15</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5">
+        <v>17</v>
+      </c>
+      <c r="M22" s="5">
+        <v>22</v>
+      </c>
+      <c r="N22" s="5">
+        <v>8</v>
+      </c>
+      <c r="O22" s="5">
+        <v>17</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>15</v>
+      </c>
+      <c r="R22" s="5">
+        <v>4</v>
+      </c>
+      <c r="S22" s="5">
+        <v>17</v>
+      </c>
+      <c r="T22" s="5">
+        <v>22</v>
+      </c>
+      <c r="U22" s="5">
+        <v>8</v>
+      </c>
+      <c r="V22" s="5">
+        <v>17</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="5">
         <v>17</v>
       </c>
     </row>
@@ -1439,76 +1436,76 @@
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="W24" s="6" t="s">
+      <c r="V24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="X24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z24" s="6" t="s">
+      <c r="Z24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1516,76 +1513,76 @@
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="6">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6">
-        <v>17</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>15</v>
-      </c>
-      <c r="H25" s="6">
-        <v>4</v>
-      </c>
-      <c r="I25" s="6">
-        <v>17</v>
-      </c>
-      <c r="J25" s="6">
-        <v>22</v>
-      </c>
-      <c r="K25" s="6">
-        <v>8</v>
-      </c>
-      <c r="L25" s="6">
-        <v>17</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>15</v>
-      </c>
-      <c r="O25" s="6">
-        <v>4</v>
-      </c>
-      <c r="P25" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>22</v>
-      </c>
-      <c r="R25" s="6">
-        <v>8</v>
-      </c>
-      <c r="S25" s="6">
-        <v>17</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>15</v>
-      </c>
-      <c r="V25" s="6">
-        <v>4</v>
-      </c>
-      <c r="W25" s="6">
-        <v>17</v>
-      </c>
-      <c r="X25" s="6">
-        <v>22</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>8</v>
-      </c>
-      <c r="Z25" s="6">
+      <c r="C25" s="5">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>15</v>
+      </c>
+      <c r="H25" s="5">
+        <v>4</v>
+      </c>
+      <c r="I25" s="5">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5">
+        <v>22</v>
+      </c>
+      <c r="K25" s="5">
+        <v>8</v>
+      </c>
+      <c r="L25" s="5">
+        <v>17</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>15</v>
+      </c>
+      <c r="O25" s="5">
+        <v>4</v>
+      </c>
+      <c r="P25" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>22</v>
+      </c>
+      <c r="R25" s="5">
+        <v>8</v>
+      </c>
+      <c r="S25" s="5">
+        <v>17</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>15</v>
+      </c>
+      <c r="V25" s="5">
+        <v>4</v>
+      </c>
+      <c r="W25" s="5">
+        <v>17</v>
+      </c>
+      <c r="X25" s="5">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="5">
         <v>17</v>
       </c>
     </row>
@@ -1593,64 +1590,64 @@
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="J27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="6" t="s">
+      <c r="S27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V27" s="6" t="s">
+      <c r="V27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1658,84 +1655,90 @@
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>15</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4</v>
-      </c>
-      <c r="F28" s="6">
-        <v>17</v>
-      </c>
-      <c r="G28" s="6">
-        <v>22</v>
-      </c>
-      <c r="H28" s="6">
-        <v>8</v>
-      </c>
-      <c r="I28" s="6">
-        <v>17</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>15</v>
-      </c>
-      <c r="L28" s="6">
-        <v>4</v>
-      </c>
-      <c r="M28" s="6">
-        <v>17</v>
-      </c>
-      <c r="N28" s="6">
-        <v>22</v>
-      </c>
-      <c r="O28" s="6">
-        <v>8</v>
-      </c>
-      <c r="P28" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <v>15</v>
-      </c>
-      <c r="S28" s="6">
-        <v>4</v>
-      </c>
-      <c r="T28" s="6">
-        <v>17</v>
-      </c>
-      <c r="U28" s="6">
-        <v>22</v>
-      </c>
-      <c r="V28" s="6">
-        <v>8</v>
-      </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5">
+        <v>22</v>
+      </c>
+      <c r="H28" s="5">
+        <v>8</v>
+      </c>
+      <c r="I28" s="5">
+        <v>17</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>15</v>
+      </c>
+      <c r="L28" s="5">
+        <v>4</v>
+      </c>
+      <c r="M28" s="5">
+        <v>17</v>
+      </c>
+      <c r="N28" s="5">
+        <v>22</v>
+      </c>
+      <c r="O28" s="5">
+        <v>8</v>
+      </c>
+      <c r="P28" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
+        <v>15</v>
+      </c>
+      <c r="S28" s="5">
+        <v>4</v>
+      </c>
+      <c r="T28" s="5">
+        <v>17</v>
+      </c>
+      <c r="U28" s="5">
+        <v>22</v>
+      </c>
+      <c r="V28" s="5">
+        <v>8</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="B31:E31"/>
     <mergeCell ref="A12:Z12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A55DF03-CD6E-41FA-8EED-6A50B6830DCB}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1758,112 +1761,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="17" t="s">
+      <c r="P3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="17" t="s">
+      <c r="R3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="17" t="s">
+      <c r="W3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1948,11 +1951,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D6"/>
@@ -1983,25 +1986,25 @@
         <v>35</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
@@ -2027,25 +2030,25 @@
         <v>36</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="6">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6">
-        <v>17</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -2098,76 +2101,76 @@
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="6" t="s">
+      <c r="N10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="6" t="s">
+      <c r="T10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="W10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="6" t="s">
+      <c r="X10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="Z10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2175,76 +2178,76 @@
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6">
-        <v>8</v>
-      </c>
-      <c r="H11" s="6">
-        <v>17</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>15</v>
-      </c>
-      <c r="K11" s="6">
-        <v>4</v>
-      </c>
-      <c r="L11" s="6">
-        <v>17</v>
-      </c>
-      <c r="M11" s="6">
-        <v>22</v>
-      </c>
-      <c r="N11" s="6">
-        <v>8</v>
-      </c>
-      <c r="O11" s="6">
-        <v>17</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>15</v>
-      </c>
-      <c r="R11" s="6">
-        <v>4</v>
-      </c>
-      <c r="S11" s="6">
-        <v>17</v>
-      </c>
-      <c r="T11" s="6">
-        <v>22</v>
-      </c>
-      <c r="U11" s="6">
-        <v>8</v>
-      </c>
-      <c r="V11" s="6">
-        <v>17</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="6">
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5">
+        <v>22</v>
+      </c>
+      <c r="N11" s="5">
+        <v>8</v>
+      </c>
+      <c r="O11" s="5">
+        <v>17</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>15</v>
+      </c>
+      <c r="R11" s="5">
+        <v>4</v>
+      </c>
+      <c r="S11" s="5">
+        <v>17</v>
+      </c>
+      <c r="T11" s="5">
+        <v>22</v>
+      </c>
+      <c r="U11" s="5">
+        <v>8</v>
+      </c>
+      <c r="V11" s="5">
+        <v>17</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="5">
         <v>17</v>
       </c>
     </row>
@@ -2252,76 +2255,76 @@
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="6" t="s">
+      <c r="P13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="6" t="s">
+      <c r="W13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y13" s="6" t="s">
+      <c r="X13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="6" t="s">
+      <c r="Z13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2329,76 +2332,76 @@
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6">
-        <v>4</v>
-      </c>
-      <c r="I14" s="6">
-        <v>17</v>
-      </c>
-      <c r="J14" s="6">
-        <v>22</v>
-      </c>
-      <c r="K14" s="6">
-        <v>8</v>
-      </c>
-      <c r="L14" s="6">
-        <v>17</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>15</v>
-      </c>
-      <c r="O14" s="6">
-        <v>4</v>
-      </c>
-      <c r="P14" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>22</v>
-      </c>
-      <c r="R14" s="6">
-        <v>8</v>
-      </c>
-      <c r="S14" s="6">
-        <v>17</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>15</v>
-      </c>
-      <c r="V14" s="6">
-        <v>4</v>
-      </c>
-      <c r="W14" s="6">
-        <v>17</v>
-      </c>
-      <c r="X14" s="6">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="6">
+      <c r="C14" s="5">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5">
+        <v>17</v>
+      </c>
+      <c r="J14" s="5">
+        <v>22</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8</v>
+      </c>
+      <c r="L14" s="5">
+        <v>17</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>15</v>
+      </c>
+      <c r="O14" s="5">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>22</v>
+      </c>
+      <c r="R14" s="5">
+        <v>8</v>
+      </c>
+      <c r="S14" s="5">
+        <v>17</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>15</v>
+      </c>
+      <c r="V14" s="5">
+        <v>4</v>
+      </c>
+      <c r="W14" s="5">
+        <v>17</v>
+      </c>
+      <c r="X14" s="5">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="5">
         <v>17</v>
       </c>
     </row>
@@ -2406,64 +2409,64 @@
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="F16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="J16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2471,144 +2474,144 @@
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4</v>
-      </c>
-      <c r="F17" s="6">
-        <v>17</v>
-      </c>
-      <c r="G17" s="6">
-        <v>22</v>
-      </c>
-      <c r="H17" s="6">
-        <v>8</v>
-      </c>
-      <c r="I17" s="6">
-        <v>17</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>15</v>
-      </c>
-      <c r="L17" s="6">
-        <v>4</v>
-      </c>
-      <c r="M17" s="6">
-        <v>17</v>
-      </c>
-      <c r="N17" s="6">
-        <v>22</v>
-      </c>
-      <c r="O17" s="6">
-        <v>8</v>
-      </c>
-      <c r="P17" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>15</v>
-      </c>
-      <c r="S17" s="6">
-        <v>4</v>
-      </c>
-      <c r="T17" s="6">
-        <v>17</v>
-      </c>
-      <c r="U17" s="6">
-        <v>22</v>
-      </c>
-      <c r="V17" s="6">
-        <v>8</v>
-      </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>17</v>
+      </c>
+      <c r="G17" s="5">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5">
+        <v>8</v>
+      </c>
+      <c r="I17" s="5">
+        <v>17</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>15</v>
+      </c>
+      <c r="L17" s="5">
+        <v>4</v>
+      </c>
+      <c r="M17" s="5">
+        <v>17</v>
+      </c>
+      <c r="N17" s="5">
+        <v>22</v>
+      </c>
+      <c r="O17" s="5">
+        <v>8</v>
+      </c>
+      <c r="P17" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>15</v>
+      </c>
+      <c r="S17" s="5">
+        <v>4</v>
+      </c>
+      <c r="T17" s="5">
+        <v>17</v>
+      </c>
+      <c r="U17" s="5">
+        <v>22</v>
+      </c>
+      <c r="V17" s="5">
+        <v>8</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
     </row>
     <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -2619,11 +2622,11 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18">
         <v>99</v>
       </c>
     </row>
@@ -2631,224 +2634,224 @@
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="15" t="s">
+      <c r="I28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="15" t="s">
+      <c r="P28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S28" s="15" t="s">
+      <c r="R28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T28" s="15" t="s">
+      <c r="T28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="15" t="s">
+      <c r="V28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="X28" s="15" t="s">
+      <c r="W28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y28" s="15" t="s">
+      <c r="Y28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="16" t="s">
+      <c r="Z28" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="K29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="M29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S29" s="6" t="s">
+      <c r="R29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T29" s="6" t="s">
+      <c r="T29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="6" t="s">
+      <c r="U29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="6" t="s">
+      <c r="V29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="6" t="s">
+      <c r="X29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y29" s="6" t="s">
+      <c r="Y29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z29" s="6" t="s">
+      <c r="Z29" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
